--- a/data/air_info/北京-南京.xlsx
+++ b/data/air_info/北京-南京.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2C5FFA-8ACA-4858-9E6A-23C20FCD1E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72499556-514F-437A-8612-88B21616BFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,33 +33,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
-    <t>行程时间：2 小时 20 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Airbus A321CA 1847</t>
   </si>
   <si>
-    <t>行程时间：2 小时 5 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Boeing 737CA 1561</t>
   </si>
   <si>
-    <t>行程时间：2 小时</t>
-  </si>
-  <si>
     <t>国航经济舱Airbus A330CA 1503</t>
   </si>
   <si>
-    <t>行程时间：2 小时 15 分钟</t>
-  </si>
-  <si>
     <t>东航经济舱Airbus A320MU 2832</t>
   </si>
   <si>
-    <t>行程时间：2 小时 10 分钟</t>
-  </si>
-  <si>
     <t>东航经济舱Airbus A320MU 2842</t>
   </si>
   <si>
@@ -97,6 +82,25 @@
   </si>
   <si>
     <t>机票价格</t>
+  </si>
+  <si>
+    <t>2 小时 20 分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时 5 分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时 15 分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时 10 分钟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -475,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -487,201 +491,195 @@
     <col min="3" max="3" width="39" customWidth="1"/>
     <col min="4" max="5" width="41.08984375" customWidth="1"/>
     <col min="6" max="6" width="38.36328125" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0.43402777777777779</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3">
         <v>0.53125</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f ca="1">RANDBETWEEN(1000,2800)</f>
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.58333333333333337</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3">
         <v>0.67013888888888884</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G8" ca="1" si="0">RANDBETWEEN(1000,2800)</f>
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.73958333333333337</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3">
         <v>0.82291666666666663</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.75347222222222221</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3">
         <v>0.84722222222222221</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.83333333333333337</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3">
         <v>0.92361111111111116</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>2522</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.84027777777777779</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3">
         <v>0.92708333333333337</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.84722222222222221</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3">
         <v>0.93055555555555558</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -689,7 +687,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -697,7 +695,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -705,7 +703,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -713,7 +711,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -721,7 +719,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -729,7 +727,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -737,7 +735,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
